--- a/data/142/STANOR/07221 Price for existing dwellings.xlsx
+++ b/data/142/STANOR/07221 Price for existing dwellings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>07221: Price for existing dwellings, by quarter, contents, region and type of building</x:t>
   </x:si>
@@ -385,19 +385,22 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>region:</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;a href='https://www.ssb.no/offentlig-sektor/kommunekatalog/endringer-i-de-regionale-inndelingene' target='footnote'&gt;&lt;b&gt;See list over changes in regional classifications (in Norwegian).&lt;/b&gt;&lt;/a&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Price index for existing dwellings:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211012 08:00</x:t>
+    <x:t>20220112 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -846,14 +849,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B171"/>
+  <x:dimension ref="A1:B172"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="30.320625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -1828,9 +1830,12 @@
         <x:v>136.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:2">
-      <x:c r="A126" s="0" t="s">
+    <x:row r="125" spans="1:2">
+      <x:c r="A125" s="2" t="s">
         <x:v>123</x:v>
+      </x:c>
+      <x:c r="B125" s="3" t="n">
+        <x:v>133.5</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:2">
@@ -1838,8 +1843,8 @@
         <x:v>124</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:2">
-      <x:c r="A130" s="0" t="s">
+    <x:row r="128" spans="1:2">
+      <x:c r="A128" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
     </x:row>
@@ -1853,8 +1858,8 @@
         <x:v>127</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:2">
-      <x:c r="A134" s="0" t="s">
+    <x:row r="133" spans="1:2">
+      <x:c r="A133" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
     </x:row>
@@ -1863,19 +1868,19 @@
         <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:2">
-      <x:c r="A137" s="0" t="s">
+    <x:row r="136" spans="1:2">
+      <x:c r="A136" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:2">
       <x:c r="A139" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:2">
@@ -1888,8 +1893,8 @@
         <x:v>133</x:v>
       </x:c>
     </x:row>
-    <x:row r="143" spans="1:2">
-      <x:c r="A143" s="0" t="s">
+    <x:row r="142" spans="1:2">
+      <x:c r="A142" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
     </x:row>
@@ -1903,24 +1908,24 @@
         <x:v>136</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:2">
-      <x:c r="A149" s="0" t="s">
+    <x:row r="146" spans="1:2">
+      <x:c r="A146" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
     </x:row>
-    <x:row r="151" spans="1:2">
-      <x:c r="A151" s="0" t="s">
+    <x:row r="150" spans="1:2">
+      <x:c r="A150" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:2">
       <x:c r="A152" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:2">
       <x:c r="A153" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2">
@@ -1930,31 +1935,31 @@
     </x:row>
     <x:row r="155" spans="1:2">
       <x:c r="A155" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2">
       <x:c r="A156" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="158" spans="1:2">
-      <x:c r="A158" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:2">
+      <x:c r="A157" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:2">
       <x:c r="A159" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:2">
       <x:c r="A160" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="167" spans="1:2">
-      <x:c r="A167" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:2">
+      <x:c r="A161" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
     </x:row>
@@ -1963,8 +1968,8 @@
         <x:v>145</x:v>
       </x:c>
     </x:row>
-    <x:row r="170" spans="1:2">
-      <x:c r="A170" s="0" t="s">
+    <x:row r="169" spans="1:2">
+      <x:c r="A169" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
     </x:row>
@@ -1973,7 +1978,15 @@
         <x:v>147</x:v>
       </x:c>
     </x:row>
+    <x:row r="172" spans="1:2">
+      <x:c r="A172" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A128:B128"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
